--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel40/field_100ha_100ha_2%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel40/field_100ha_100ha_2%_6m_0_LM/Planilha_Unificada.xlsx
@@ -2977,28 +2977,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>310.2190368376788</v>
+        <v>344.7525975281638</v>
       </c>
       <c r="AB2" t="n">
-        <v>424.4553720993162</v>
+        <v>471.7057133492114</v>
       </c>
       <c r="AC2" t="n">
-        <v>383.9459471130129</v>
+        <v>426.6867821102885</v>
       </c>
       <c r="AD2" t="n">
-        <v>310219.0368376788</v>
+        <v>344752.5975281638</v>
       </c>
       <c r="AE2" t="n">
-        <v>424455.3720993162</v>
+        <v>471705.7133492114</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.299905750172006e-06</v>
+        <v>4.75735669029868e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.210416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>383945.947113013</v>
+        <v>426686.7821102885</v>
       </c>
     </row>
     <row r="3">
@@ -3083,28 +3083,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>126.7945762360581</v>
+        <v>144.0614013355759</v>
       </c>
       <c r="AB3" t="n">
-        <v>173.4859329880131</v>
+        <v>197.1111648477227</v>
       </c>
       <c r="AC3" t="n">
-        <v>156.9286790327217</v>
+        <v>178.2991519219693</v>
       </c>
       <c r="AD3" t="n">
-        <v>126794.5762360581</v>
+        <v>144061.4013355759</v>
       </c>
       <c r="AE3" t="n">
-        <v>173485.9329880131</v>
+        <v>197111.1648477227</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.001685347571899e-06</v>
+        <v>8.652416190932259e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.064583333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>156928.6790327217</v>
+        <v>178299.1519219693</v>
       </c>
     </row>
     <row r="4">
@@ -3189,28 +3189,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>103.0677593180221</v>
+        <v>120.2492435629682</v>
       </c>
       <c r="AB4" t="n">
-        <v>141.0218553274862</v>
+        <v>164.5303200649982</v>
       </c>
       <c r="AC4" t="n">
-        <v>127.562927380486</v>
+        <v>148.8277772377948</v>
       </c>
       <c r="AD4" t="n">
-        <v>103067.7593180221</v>
+        <v>120249.2435629682</v>
       </c>
       <c r="AE4" t="n">
-        <v>141021.8553274862</v>
+        <v>164530.3200649982</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.800986125873951e-06</v>
+        <v>9.804739679267646e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.46875</v>
       </c>
       <c r="AH4" t="n">
-        <v>127562.927380486</v>
+        <v>148827.7772377948</v>
       </c>
     </row>
     <row r="5">
@@ -3295,28 +3295,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>96.58219652015245</v>
+        <v>113.7636807650986</v>
       </c>
       <c r="AB5" t="n">
-        <v>132.1480221846083</v>
+        <v>155.6564869221203</v>
       </c>
       <c r="AC5" t="n">
-        <v>119.5360004182585</v>
+        <v>140.8008502755673</v>
       </c>
       <c r="AD5" t="n">
-        <v>96582.19652015244</v>
+        <v>113763.6807650986</v>
       </c>
       <c r="AE5" t="n">
-        <v>132148.0221846083</v>
+        <v>155656.4869221203</v>
       </c>
       <c r="AF5" t="n">
-        <v>7.2134014024317e-06</v>
+        <v>1.039930410736112e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.212499999999999</v>
       </c>
       <c r="AH5" t="n">
-        <v>119536.0004182585</v>
+        <v>140800.8502755673</v>
       </c>
     </row>
     <row r="6">
@@ -3401,28 +3401,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>93.29313615896345</v>
+        <v>110.4746204039096</v>
       </c>
       <c r="AB6" t="n">
-        <v>127.6477846953295</v>
+        <v>151.1562494328415</v>
       </c>
       <c r="AC6" t="n">
-        <v>115.4652592788321</v>
+        <v>136.7301091361408</v>
       </c>
       <c r="AD6" t="n">
-        <v>93293.13615896345</v>
+        <v>110474.6204039096</v>
       </c>
       <c r="AE6" t="n">
-        <v>127647.7846953295</v>
+        <v>151156.2494328415</v>
       </c>
       <c r="AF6" t="n">
-        <v>7.415888987809185e-06</v>
+        <v>1.069122325352091e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.097916666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>115465.2592788321</v>
+        <v>136730.1091361408</v>
       </c>
     </row>
     <row r="7">
@@ -3507,28 +3507,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>79.22948210007912</v>
+        <v>96.49621769104587</v>
       </c>
       <c r="AB7" t="n">
-        <v>108.4052727673454</v>
+        <v>132.0303821575066</v>
       </c>
       <c r="AC7" t="n">
-        <v>98.05922568221345</v>
+        <v>119.4295877902345</v>
       </c>
       <c r="AD7" t="n">
-        <v>79229.48210007913</v>
+        <v>96496.21769104587</v>
       </c>
       <c r="AE7" t="n">
-        <v>108405.2727673453</v>
+        <v>132030.3821575065</v>
       </c>
       <c r="AF7" t="n">
-        <v>7.758863276874367e-06</v>
+        <v>1.118567708105815e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.916666666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>98059.22568221345</v>
+        <v>119429.5877902345</v>
       </c>
     </row>
     <row r="8">
@@ -3613,28 +3613,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>75.99036548776199</v>
+        <v>93.25710107872874</v>
       </c>
       <c r="AB8" t="n">
-        <v>103.9733705186357</v>
+        <v>127.5984799087969</v>
       </c>
       <c r="AC8" t="n">
-        <v>94.05029796390534</v>
+        <v>115.4206600719263</v>
       </c>
       <c r="AD8" t="n">
-        <v>75990.36548776198</v>
+        <v>93257.10107872874</v>
       </c>
       <c r="AE8" t="n">
-        <v>103973.3705186357</v>
+        <v>127598.4799087969</v>
       </c>
       <c r="AF8" t="n">
-        <v>7.941364695683614e-06</v>
+        <v>1.144878288209986e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>4</v>
+        <v>3.827083333333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>94050.29796390534</v>
+        <v>115420.6600719263</v>
       </c>
     </row>
     <row r="9">
@@ -3719,28 +3719,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>74.7321419064171</v>
+        <v>91.99887749738383</v>
       </c>
       <c r="AB9" t="n">
-        <v>102.2518135057337</v>
+        <v>125.8769228958949</v>
       </c>
       <c r="AC9" t="n">
-        <v>92.49304393609371</v>
+        <v>113.8634060441147</v>
       </c>
       <c r="AD9" t="n">
-        <v>74732.14190641709</v>
+        <v>91998.87749738383</v>
       </c>
       <c r="AE9" t="n">
-        <v>102251.8135057337</v>
+        <v>125876.9228958949</v>
       </c>
       <c r="AF9" t="n">
-        <v>8.001469079815836e-06</v>
+        <v>1.153543323384182e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>4</v>
+        <v>3.797916666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>92493.04393609372</v>
+        <v>113863.4060441147</v>
       </c>
     </row>
     <row r="10">
@@ -3825,28 +3825,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>74.91157010064317</v>
+        <v>92.17830569160995</v>
       </c>
       <c r="AB10" t="n">
-        <v>102.497315076887</v>
+        <v>126.1224244670482</v>
       </c>
       <c r="AC10" t="n">
-        <v>92.71511518185983</v>
+        <v>114.0854772898808</v>
       </c>
       <c r="AD10" t="n">
-        <v>74911.57010064318</v>
+        <v>92178.30569160994</v>
       </c>
       <c r="AE10" t="n">
-        <v>102497.315076887</v>
+        <v>126122.4244670482</v>
       </c>
       <c r="AF10" t="n">
-        <v>8.004094999510933e-06</v>
+        <v>1.153921892882084e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>4</v>
+        <v>3.797916666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>92715.11518185983</v>
+        <v>114085.4772898808</v>
       </c>
     </row>
   </sheetData>
@@ -4122,28 +4122,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>200.9724134609063</v>
+        <v>234.4715154803257</v>
       </c>
       <c r="AB2" t="n">
-        <v>274.9793223742167</v>
+        <v>320.8142716332413</v>
       </c>
       <c r="AC2" t="n">
-        <v>248.735681782805</v>
+        <v>290.1962078143181</v>
       </c>
       <c r="AD2" t="n">
-        <v>200972.4134609063</v>
+        <v>234471.5154803257</v>
       </c>
       <c r="AE2" t="n">
-        <v>274979.3223742167</v>
+        <v>320814.2716332413</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.319802387009568e-06</v>
+        <v>6.324028188139629e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.279166666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>248735.681782805</v>
+        <v>290196.2078143181</v>
       </c>
     </row>
     <row r="3">
@@ -4228,28 +4228,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>107.9197836605231</v>
+        <v>133.0867134709603</v>
       </c>
       <c r="AB3" t="n">
-        <v>147.6606090890995</v>
+        <v>182.0951127423054</v>
       </c>
       <c r="AC3" t="n">
-        <v>133.5680878006424</v>
+        <v>164.7162107543268</v>
       </c>
       <c r="AD3" t="n">
-        <v>107919.7836605231</v>
+        <v>133086.7134709603</v>
       </c>
       <c r="AE3" t="n">
-        <v>147660.6090890995</v>
+        <v>182095.1127423054</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.38145765562813e-06</v>
+        <v>9.342213944084833e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.927083333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>133568.0878006424</v>
+        <v>164716.2107543268</v>
       </c>
     </row>
     <row r="4">
@@ -4334,28 +4334,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>89.4676420463332</v>
+        <v>106.2172378103185</v>
       </c>
       <c r="AB4" t="n">
-        <v>122.4135748815423</v>
+        <v>145.3311107458288</v>
       </c>
       <c r="AC4" t="n">
-        <v>110.7305951034114</v>
+        <v>131.4609135097813</v>
       </c>
       <c r="AD4" t="n">
-        <v>89467.6420463332</v>
+        <v>106217.2378103185</v>
       </c>
       <c r="AE4" t="n">
-        <v>122413.5748815423</v>
+        <v>145331.1107458288</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.523132650657734e-06</v>
+        <v>1.101358318819035e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.179166666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>110730.5951034114</v>
+        <v>131460.9135097813</v>
       </c>
     </row>
     <row r="5">
@@ -4440,28 +4440,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>74.60445731418582</v>
+        <v>91.43930442419165</v>
       </c>
       <c r="AB5" t="n">
-        <v>102.0771098135963</v>
+        <v>125.111290330532</v>
       </c>
       <c r="AC5" t="n">
-        <v>92.3350137191357</v>
+        <v>113.1708443762178</v>
       </c>
       <c r="AD5" t="n">
-        <v>74604.45731418583</v>
+        <v>91439.30442419165</v>
       </c>
       <c r="AE5" t="n">
-        <v>102077.1098135963</v>
+        <v>125111.290330532</v>
       </c>
       <c r="AF5" t="n">
-        <v>7.997007004179605e-06</v>
+        <v>1.17073174150894e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.93125</v>
       </c>
       <c r="AH5" t="n">
-        <v>92335.01371913571</v>
+        <v>113170.8443762178</v>
       </c>
     </row>
     <row r="6">
@@ -4546,28 +4546,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>71.71735038821954</v>
+        <v>88.55219749822537</v>
       </c>
       <c r="AB6" t="n">
-        <v>98.12684274732298</v>
+        <v>121.1610232642587</v>
       </c>
       <c r="AC6" t="n">
-        <v>88.7617545974316</v>
+        <v>109.5975852545137</v>
       </c>
       <c r="AD6" t="n">
-        <v>71717.35038821954</v>
+        <v>88552.19749822537</v>
       </c>
       <c r="AE6" t="n">
-        <v>98126.84274732298</v>
+        <v>121161.0232642587</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.17055971327201e-06</v>
+        <v>1.19613920523295e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.847916666666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>88761.7545974316</v>
+        <v>109597.5852545137</v>
       </c>
     </row>
     <row r="7">
@@ -4652,28 +4652,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>70.41132826594081</v>
+        <v>87.24617537594665</v>
       </c>
       <c r="AB7" t="n">
-        <v>96.33988566199255</v>
+        <v>119.3740661789282</v>
       </c>
       <c r="AC7" t="n">
-        <v>87.1453421883145</v>
+        <v>107.9811728453966</v>
       </c>
       <c r="AD7" t="n">
-        <v>70411.32826594081</v>
+        <v>87246.17537594665</v>
       </c>
       <c r="AE7" t="n">
-        <v>96339.88566199255</v>
+        <v>119374.0661789282</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.239377135312129e-06</v>
+        <v>1.206213816935688e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.816666666666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>87145.34218831451</v>
+        <v>107981.1728453966</v>
       </c>
     </row>
     <row r="8">
@@ -4758,28 +4758,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>70.61373695112476</v>
+        <v>87.44858406113059</v>
       </c>
       <c r="AB8" t="n">
-        <v>96.61683015470206</v>
+        <v>119.6510106716377</v>
       </c>
       <c r="AC8" t="n">
-        <v>87.39585548733393</v>
+        <v>108.231686144416</v>
       </c>
       <c r="AD8" t="n">
-        <v>70613.73695112477</v>
+        <v>87448.58406113059</v>
       </c>
       <c r="AE8" t="n">
-        <v>96616.83015470205</v>
+        <v>119651.0106716377</v>
       </c>
       <c r="AF8" t="n">
-        <v>8.235302419533438e-06</v>
+        <v>1.205617293874341e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>4</v>
+        <v>3.81875</v>
       </c>
       <c r="AH8" t="n">
-        <v>87395.85548733393</v>
+        <v>108231.686144416</v>
       </c>
     </row>
   </sheetData>
@@ -5055,28 +5055,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>77.90159295850029</v>
+        <v>93.5215112815514</v>
       </c>
       <c r="AB2" t="n">
-        <v>106.5883962615037</v>
+        <v>127.9602576132535</v>
       </c>
       <c r="AC2" t="n">
-        <v>96.41574932008656</v>
+        <v>115.747910220028</v>
       </c>
       <c r="AD2" t="n">
-        <v>77901.59295850029</v>
+        <v>93521.5112815514</v>
       </c>
       <c r="AE2" t="n">
-        <v>106588.3962615037</v>
+        <v>127960.2576132535</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.702934526890291e-06</v>
+        <v>1.191739050876257e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.554166666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>96415.74932008656</v>
+        <v>115747.910220028</v>
       </c>
     </row>
     <row r="3">
@@ -5161,28 +5161,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>67.81215026819882</v>
+        <v>83.26147639065773</v>
       </c>
       <c r="AB3" t="n">
-        <v>92.78357565784329</v>
+        <v>113.9220252347463</v>
       </c>
       <c r="AC3" t="n">
-        <v>83.92844141964768</v>
+        <v>103.0494670369381</v>
       </c>
       <c r="AD3" t="n">
-        <v>67812.15026819882</v>
+        <v>83261.47639065773</v>
       </c>
       <c r="AE3" t="n">
-        <v>92783.57565784329</v>
+        <v>113922.0252347463</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.759978819341218e-06</v>
+        <v>1.355276850324254e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.004166666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>83928.44141964769</v>
+        <v>103049.4670369381</v>
       </c>
     </row>
   </sheetData>
@@ -5458,28 +5458,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>111.3707479981477</v>
+        <v>135.264552332789</v>
       </c>
       <c r="AB2" t="n">
-        <v>152.3823707416367</v>
+        <v>185.0749279525276</v>
       </c>
       <c r="AC2" t="n">
-        <v>137.8392111480971</v>
+        <v>167.4116365830832</v>
       </c>
       <c r="AD2" t="n">
-        <v>111370.7479981477</v>
+        <v>135264.5523327889</v>
       </c>
       <c r="AE2" t="n">
-        <v>152382.3707416367</v>
+        <v>185074.9279525276</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.243368381411214e-06</v>
+        <v>9.43556497757221e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.375</v>
       </c>
       <c r="AH2" t="n">
-        <v>137839.2111480971</v>
+        <v>167411.6365830832</v>
       </c>
     </row>
     <row r="3">
@@ -5564,28 +5564,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>76.15796506763752</v>
+        <v>92.11564474510591</v>
       </c>
       <c r="AB3" t="n">
-        <v>104.2026876577929</v>
+        <v>126.0366889956355</v>
       </c>
       <c r="AC3" t="n">
-        <v>94.2577293971501</v>
+        <v>114.0079242915293</v>
       </c>
       <c r="AD3" t="n">
-        <v>76157.96506763752</v>
+        <v>92115.64474510591</v>
       </c>
       <c r="AE3" t="n">
-        <v>104202.6876577929</v>
+        <v>126036.6889956355</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.24796746201966e-06</v>
+        <v>1.246510347723498e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.068750000000001</v>
       </c>
       <c r="AH3" t="n">
-        <v>94257.72939715011</v>
+        <v>114007.9242915293</v>
       </c>
     </row>
     <row r="4">
@@ -5670,28 +5670,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>63.10571899217077</v>
+        <v>79.14865001565971</v>
       </c>
       <c r="AB4" t="n">
-        <v>86.34402875289105</v>
+        <v>108.2946747433829</v>
       </c>
       <c r="AC4" t="n">
-        <v>78.10347583334122</v>
+        <v>97.95918297843264</v>
       </c>
       <c r="AD4" t="n">
-        <v>63105.71899217077</v>
+        <v>79148.65001565972</v>
       </c>
       <c r="AE4" t="n">
-        <v>86344.02875289106</v>
+        <v>108294.6747433829</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.699537921148928e-06</v>
+        <v>1.314755918844247e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.858333333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>78103.47583334122</v>
+        <v>97959.18297843264</v>
       </c>
     </row>
     <row r="5">
@@ -5776,28 +5776,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>62.76569503787208</v>
+        <v>78.80862606136102</v>
       </c>
       <c r="AB5" t="n">
-        <v>85.87879297782166</v>
+        <v>107.8294389683135</v>
       </c>
       <c r="AC5" t="n">
-        <v>77.68264150768178</v>
+        <v>97.53834865277321</v>
       </c>
       <c r="AD5" t="n">
-        <v>62765.69503787208</v>
+        <v>78808.62606136102</v>
       </c>
       <c r="AE5" t="n">
-        <v>85878.79297782166</v>
+        <v>107829.4389683135</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.760917994259257e-06</v>
+        <v>1.324032252271648e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.83125</v>
       </c>
       <c r="AH5" t="n">
-        <v>77682.64150768178</v>
+        <v>97538.3486527732</v>
       </c>
     </row>
   </sheetData>
@@ -6073,28 +6073,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>68.16672396821791</v>
+        <v>83.19909589647943</v>
       </c>
       <c r="AB2" t="n">
-        <v>93.26871903689681</v>
+        <v>113.8366734905784</v>
       </c>
       <c r="AC2" t="n">
-        <v>84.3672833955075</v>
+        <v>102.9722611434416</v>
       </c>
       <c r="AD2" t="n">
-        <v>68166.72396821791</v>
+        <v>83199.09589647944</v>
       </c>
       <c r="AE2" t="n">
-        <v>93268.71903689681</v>
+        <v>113836.6734905784</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.322656003422713e-06</v>
+        <v>1.315385786116177e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.377083333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>84367.2833955075</v>
+        <v>102972.2611434416</v>
       </c>
     </row>
     <row r="3">
@@ -6179,28 +6179,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>64.41431258447712</v>
+        <v>79.44668451273864</v>
       </c>
       <c r="AB3" t="n">
-        <v>88.13450423695855</v>
+        <v>108.7024586906401</v>
       </c>
       <c r="AC3" t="n">
-        <v>79.723070850158</v>
+        <v>98.32804859809212</v>
       </c>
       <c r="AD3" t="n">
-        <v>64414.31258447712</v>
+        <v>79446.68451273865</v>
       </c>
       <c r="AE3" t="n">
-        <v>88134.50423695854</v>
+        <v>108702.4586906401</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.860639651271413e-06</v>
+        <v>1.400413455558731e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.1125</v>
       </c>
       <c r="AH3" t="n">
-        <v>79723.07085015799</v>
+        <v>98328.04859809212</v>
       </c>
     </row>
   </sheetData>
@@ -6476,28 +6476,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>219.5112993074932</v>
+        <v>253.4080299172541</v>
       </c>
       <c r="AB2" t="n">
-        <v>300.3450438674248</v>
+        <v>346.7240461058896</v>
       </c>
       <c r="AC2" t="n">
-        <v>271.6805344177231</v>
+        <v>313.6331897759019</v>
       </c>
       <c r="AD2" t="n">
-        <v>219511.2993074932</v>
+        <v>253408.0299172541</v>
       </c>
       <c r="AE2" t="n">
-        <v>300345.0438674248</v>
+        <v>346724.0461058895</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.04499264711277e-06</v>
+        <v>5.897139318961331e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.702083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>271680.5344177231</v>
+        <v>313633.189775902</v>
       </c>
     </row>
     <row r="3">
@@ -6582,28 +6582,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>122.5708941805626</v>
+        <v>139.5193489939941</v>
       </c>
       <c r="AB3" t="n">
-        <v>167.7069048639857</v>
+        <v>190.8965284527664</v>
       </c>
       <c r="AC3" t="n">
-        <v>151.7011932419327</v>
+        <v>172.6776317022487</v>
       </c>
       <c r="AD3" t="n">
-        <v>122570.8941805626</v>
+        <v>139519.3489939941</v>
       </c>
       <c r="AE3" t="n">
-        <v>167706.9048639857</v>
+        <v>190896.5284527664</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.134790852322661e-06</v>
+        <v>8.943827468922386e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.079166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>151701.1932419327</v>
+        <v>172677.6317022487</v>
       </c>
     </row>
     <row r="4">
@@ -6688,28 +6688,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>91.41618997895115</v>
+        <v>108.279303937811</v>
       </c>
       <c r="AB4" t="n">
-        <v>125.0796641268166</v>
+        <v>148.1525205933997</v>
       </c>
       <c r="AC4" t="n">
-        <v>113.1422365329973</v>
+        <v>134.0130519613745</v>
       </c>
       <c r="AD4" t="n">
-        <v>91416.18997895115</v>
+        <v>108279.303937811</v>
       </c>
       <c r="AE4" t="n">
-        <v>125079.6641268166</v>
+        <v>148152.5205933997</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.422201068485743e-06</v>
+        <v>1.082072517126725e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.197916666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>113142.2365329973</v>
+        <v>134013.0519613745</v>
       </c>
     </row>
     <row r="5">
@@ -6794,28 +6794,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>86.48426035692216</v>
+        <v>103.347374315782</v>
       </c>
       <c r="AB5" t="n">
-        <v>118.3315804365812</v>
+        <v>141.4044369031643</v>
       </c>
       <c r="AC5" t="n">
-        <v>107.0381804791608</v>
+        <v>127.908995907538</v>
       </c>
       <c r="AD5" t="n">
-        <v>86484.26035692217</v>
+        <v>103347.374315782</v>
       </c>
       <c r="AE5" t="n">
-        <v>118331.5804365812</v>
+        <v>141404.4369031643</v>
       </c>
       <c r="AF5" t="n">
-        <v>7.787126826784758e-06</v>
+        <v>1.135274543076091e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.002083333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>107038.1804791608</v>
+        <v>127908.995907538</v>
       </c>
     </row>
     <row r="6">
@@ -6900,28 +6900,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>74.2931866867102</v>
+        <v>91.24155199159065</v>
       </c>
       <c r="AB6" t="n">
-        <v>101.6512156087935</v>
+        <v>124.8407167280258</v>
       </c>
       <c r="AC6" t="n">
-        <v>91.94976625949286</v>
+        <v>112.9260939385823</v>
       </c>
       <c r="AD6" t="n">
-        <v>74293.18668671021</v>
+        <v>91241.55199159065</v>
       </c>
       <c r="AE6" t="n">
-        <v>101651.2156087935</v>
+        <v>124840.7167280258</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.028815361789352e-06</v>
+        <v>1.170509983213049e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.88125</v>
       </c>
       <c r="AH6" t="n">
-        <v>91949.76625949286</v>
+        <v>112926.0939385823</v>
       </c>
     </row>
     <row r="7">
@@ -7006,28 +7006,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>71.1720266788119</v>
+        <v>88.12039198369236</v>
       </c>
       <c r="AB7" t="n">
-        <v>97.3807067901277</v>
+        <v>120.5702079093601</v>
       </c>
       <c r="AC7" t="n">
-        <v>88.08682880878241</v>
+        <v>109.0631564878719</v>
       </c>
       <c r="AD7" t="n">
-        <v>71172.0266788119</v>
+        <v>88120.39198369236</v>
       </c>
       <c r="AE7" t="n">
-        <v>97380.7067901277</v>
+        <v>120570.2079093601</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.224289938058537e-06</v>
+        <v>1.199007953670353e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.789583333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>88086.82880878242</v>
+        <v>109063.1564878718</v>
       </c>
     </row>
     <row r="8">
@@ -7112,28 +7112,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>71.34584556076766</v>
+        <v>88.2942108656481</v>
       </c>
       <c r="AB8" t="n">
-        <v>97.61853345276732</v>
+        <v>120.8080345719997</v>
       </c>
       <c r="AC8" t="n">
-        <v>88.30195762853158</v>
+        <v>109.278285307621</v>
       </c>
       <c r="AD8" t="n">
-        <v>71345.84556076766</v>
+        <v>88294.2108656481</v>
       </c>
       <c r="AE8" t="n">
-        <v>97618.53345276733</v>
+        <v>120808.0345719997</v>
       </c>
       <c r="AF8" t="n">
-        <v>8.196920506186111e-06</v>
+        <v>1.19501780172415e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>4</v>
+        <v>3.802083333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>88301.95762853159</v>
+        <v>109278.285307621</v>
       </c>
     </row>
   </sheetData>
@@ -7409,28 +7409,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>62.92685234764389</v>
+        <v>77.71232496371071</v>
       </c>
       <c r="AB2" t="n">
-        <v>86.09929551881008</v>
+        <v>106.3294314411181</v>
       </c>
       <c r="AC2" t="n">
-        <v>77.88209959563558</v>
+        <v>96.18149973869909</v>
       </c>
       <c r="AD2" t="n">
-        <v>62926.85234764389</v>
+        <v>77712.32496371071</v>
       </c>
       <c r="AE2" t="n">
-        <v>86099.29551881008</v>
+        <v>106329.4314411181</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.727563958209531e-06</v>
+        <v>1.39836075455598e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.272916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>77882.09959563558</v>
+        <v>96181.49973869909</v>
       </c>
     </row>
     <row r="3">
@@ -7515,28 +7515,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>63.27454614853973</v>
+        <v>78.06001876460653</v>
       </c>
       <c r="AB3" t="n">
-        <v>86.57502551636343</v>
+        <v>106.8051614386715</v>
       </c>
       <c r="AC3" t="n">
-        <v>78.31242658991383</v>
+        <v>96.61182673297733</v>
       </c>
       <c r="AD3" t="n">
-        <v>63274.54614853972</v>
+        <v>78060.01876460653</v>
       </c>
       <c r="AE3" t="n">
-        <v>86575.02551636343</v>
+        <v>106805.1614386715</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.720583482124748e-06</v>
+        <v>1.397242318317436e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.274999999999999</v>
       </c>
       <c r="AH3" t="n">
-        <v>78312.42658991383</v>
+        <v>96611.82673297734</v>
       </c>
     </row>
   </sheetData>
@@ -7812,28 +7812,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>150.0240769958663</v>
+        <v>174.6384641157641</v>
       </c>
       <c r="AB2" t="n">
-        <v>205.2695607408126</v>
+        <v>238.9480511083599</v>
       </c>
       <c r="AC2" t="n">
-        <v>185.6789219614058</v>
+        <v>216.1431844763433</v>
       </c>
       <c r="AD2" t="n">
-        <v>150024.0769958663</v>
+        <v>174638.4641157641</v>
       </c>
       <c r="AE2" t="n">
-        <v>205269.5607408126</v>
+        <v>238948.0511083599</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.206881095228256e-06</v>
+        <v>7.731401972511732e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.220833333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>185678.9219614058</v>
+        <v>216143.1844763433</v>
       </c>
     </row>
     <row r="3">
@@ -7918,28 +7918,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>90.41886230147992</v>
+        <v>106.8000365994049</v>
       </c>
       <c r="AB3" t="n">
-        <v>123.7150763995093</v>
+        <v>146.1285217603245</v>
       </c>
       <c r="AC3" t="n">
-        <v>111.9078831431729</v>
+        <v>132.1822207362271</v>
       </c>
       <c r="AD3" t="n">
-        <v>90418.86230147992</v>
+        <v>106800.0365994049</v>
       </c>
       <c r="AE3" t="n">
-        <v>123715.0763995093</v>
+        <v>146128.5217603245</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.271005876162799e-06</v>
+        <v>1.079630361150875e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.454166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>111907.8831431729</v>
+        <v>132182.2207362271</v>
       </c>
     </row>
     <row r="4">
@@ -8024,28 +8024,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>80.65032719624692</v>
+        <v>97.03150149417192</v>
       </c>
       <c r="AB4" t="n">
-        <v>110.3493357111828</v>
+        <v>132.7627810719979</v>
       </c>
       <c r="AC4" t="n">
-        <v>99.81774998720115</v>
+        <v>120.0920875802554</v>
       </c>
       <c r="AD4" t="n">
-        <v>80650.32719624692</v>
+        <v>97031.50149417191</v>
       </c>
       <c r="AE4" t="n">
-        <v>110349.3357111828</v>
+        <v>132762.7810719979</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.040057564788205e-06</v>
+        <v>1.193822477960512e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.029166666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>99817.74998720115</v>
+        <v>120092.0875802553</v>
       </c>
     </row>
     <row r="5">
@@ -8130,28 +8130,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>66.99007537059236</v>
+        <v>83.45650101453796</v>
       </c>
       <c r="AB5" t="n">
-        <v>91.65877651555388</v>
+        <v>114.1888665290182</v>
       </c>
       <c r="AC5" t="n">
-        <v>82.91099152883251</v>
+        <v>103.2908413725989</v>
       </c>
       <c r="AD5" t="n">
-        <v>66990.07537059237</v>
+        <v>83456.50101453796</v>
       </c>
       <c r="AE5" t="n">
-        <v>91658.77651555388</v>
+        <v>114188.8665290182</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.460035043756507e-06</v>
+        <v>1.256182548219879e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.829166666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>82910.99152883251</v>
+        <v>103290.841372599</v>
       </c>
     </row>
     <row r="6">
@@ -8236,28 +8236,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>67.07762248822054</v>
+        <v>83.54404813216613</v>
       </c>
       <c r="AB6" t="n">
-        <v>91.7785623441989</v>
+        <v>114.3086523576633</v>
       </c>
       <c r="AC6" t="n">
-        <v>83.01934516611216</v>
+        <v>103.3991950098786</v>
       </c>
       <c r="AD6" t="n">
-        <v>67077.62248822054</v>
+        <v>83544.04813216612</v>
       </c>
       <c r="AE6" t="n">
-        <v>91778.5623441989</v>
+        <v>114308.6523576633</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.449306259584418e-06</v>
+        <v>1.254589492000739e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.833333333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>83019.34516611217</v>
+        <v>103399.1950098786</v>
       </c>
     </row>
   </sheetData>
@@ -8533,28 +8533,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>176.3104478616293</v>
+        <v>209.659131493644</v>
       </c>
       <c r="AB2" t="n">
-        <v>241.2357330321685</v>
+        <v>286.8648732175551</v>
       </c>
       <c r="AC2" t="n">
-        <v>218.212533248126</v>
+        <v>259.4868923351343</v>
       </c>
       <c r="AD2" t="n">
-        <v>176310.4478616293</v>
+        <v>209659.131493644</v>
       </c>
       <c r="AE2" t="n">
-        <v>241235.7330321685</v>
+        <v>286864.8732175551</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.606877028858593e-06</v>
+        <v>6.774147679417407e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.889583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>218212.533248126</v>
+        <v>259486.8923351343</v>
       </c>
     </row>
     <row r="3">
@@ -8639,28 +8639,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>102.1207390314262</v>
+        <v>127.1109165417943</v>
       </c>
       <c r="AB3" t="n">
-        <v>139.72610039178</v>
+        <v>173.9187637502705</v>
       </c>
       <c r="AC3" t="n">
-        <v>126.3908374772396</v>
+        <v>157.3202010345111</v>
       </c>
       <c r="AD3" t="n">
-        <v>102120.7390314262</v>
+        <v>127110.9165417943</v>
       </c>
       <c r="AE3" t="n">
-        <v>139726.10039178</v>
+        <v>173918.7637502705</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.641038941928467e-06</v>
+        <v>9.765265765848214e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.779166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>126390.8374772396</v>
+        <v>157320.2010345111</v>
       </c>
     </row>
     <row r="4">
@@ -8745,28 +8745,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>88.76032645987469</v>
+        <v>105.3920873571473</v>
       </c>
       <c r="AB4" t="n">
-        <v>121.4457944915889</v>
+        <v>144.2021034927318</v>
       </c>
       <c r="AC4" t="n">
-        <v>109.8551783155865</v>
+        <v>130.4396571243478</v>
       </c>
       <c r="AD4" t="n">
-        <v>88760.32645987469</v>
+        <v>105392.0873571473</v>
       </c>
       <c r="AE4" t="n">
-        <v>121445.7944915889</v>
+        <v>144202.1034927318</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.522224719729258e-06</v>
+        <v>1.106099876554233e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.21875</v>
       </c>
       <c r="AH4" t="n">
-        <v>109855.1783155865</v>
+        <v>130439.6571243478</v>
       </c>
     </row>
     <row r="5">
@@ -8851,28 +8851,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>74.0769012213572</v>
+        <v>98.98173787715373</v>
       </c>
       <c r="AB5" t="n">
-        <v>101.3552842932563</v>
+        <v>135.4311805295493</v>
       </c>
       <c r="AC5" t="n">
-        <v>91.68207821336829</v>
+        <v>122.505818738701</v>
       </c>
       <c r="AD5" t="n">
-        <v>74076.9012213572</v>
+        <v>98981.73787715373</v>
       </c>
       <c r="AE5" t="n">
-        <v>101355.2842932564</v>
+        <v>135431.1805295493</v>
       </c>
       <c r="AF5" t="n">
-        <v>7.965559888021149e-06</v>
+        <v>1.171289762949632e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.985416666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>91682.07821336828</v>
+        <v>122505.818738701</v>
       </c>
     </row>
     <row r="6">
@@ -8957,28 +8957,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>70.24587457278996</v>
+        <v>86.96288681608313</v>
       </c>
       <c r="AB6" t="n">
-        <v>96.11350461972185</v>
+        <v>118.9864582735139</v>
       </c>
       <c r="AC6" t="n">
-        <v>86.94056663499028</v>
+        <v>107.6305576944638</v>
       </c>
       <c r="AD6" t="n">
-        <v>70245.87457278995</v>
+        <v>86962.88681608313</v>
       </c>
       <c r="AE6" t="n">
-        <v>96113.50461972185</v>
+        <v>118986.4582735139</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.220439522575217e-06</v>
+        <v>1.208768347121282e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.860416666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>86940.56663499027</v>
+        <v>107630.5576944638</v>
       </c>
     </row>
     <row r="7">
@@ -9063,28 +9063,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>69.20629485642844</v>
+        <v>85.92330709972163</v>
       </c>
       <c r="AB7" t="n">
-        <v>94.69110578877654</v>
+        <v>117.5640594425686</v>
       </c>
       <c r="AC7" t="n">
-        <v>85.65391955212063</v>
+        <v>106.3439106115942</v>
       </c>
       <c r="AD7" t="n">
-        <v>69206.29485642845</v>
+        <v>85923.30709972163</v>
       </c>
       <c r="AE7" t="n">
-        <v>94691.10578877653</v>
+        <v>117564.0594425686</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.327997814263903e-06</v>
+        <v>1.224584175229581e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.810416666666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>85653.91955212063</v>
+        <v>106343.9106115942</v>
       </c>
     </row>
   </sheetData>
@@ -9360,28 +9360,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>273.8082684974614</v>
+        <v>316.6329036845358</v>
       </c>
       <c r="AB2" t="n">
-        <v>374.6365525265009</v>
+        <v>433.2311076790209</v>
       </c>
       <c r="AC2" t="n">
-        <v>338.8817657590747</v>
+        <v>391.8841388058129</v>
       </c>
       <c r="AD2" t="n">
-        <v>273808.2684974615</v>
+        <v>316632.9036845358</v>
       </c>
       <c r="AE2" t="n">
-        <v>374636.5525265008</v>
+        <v>433231.1076790208</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.533773758063125e-06</v>
+        <v>5.11256671794155e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.668750000000001</v>
       </c>
       <c r="AH2" t="n">
-        <v>338881.7657590747</v>
+        <v>391884.1388058129</v>
       </c>
     </row>
     <row r="3">
@@ -9466,28 +9466,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>124.6767930229891</v>
+        <v>141.8408729481983</v>
       </c>
       <c r="AB3" t="n">
-        <v>170.5882885658922</v>
+        <v>194.0729399453156</v>
       </c>
       <c r="AC3" t="n">
-        <v>154.3075817273775</v>
+        <v>175.5508909400715</v>
       </c>
       <c r="AD3" t="n">
-        <v>124676.7930229891</v>
+        <v>141840.8729481983</v>
       </c>
       <c r="AE3" t="n">
-        <v>170588.2885658922</v>
+        <v>194072.9399453156</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.075690997540435e-06</v>
+        <v>8.790142694236239e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.041666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>154307.5817273775</v>
+        <v>175550.8909400715</v>
       </c>
     </row>
     <row r="4">
@@ -9572,28 +9572,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>99.11850360374972</v>
+        <v>116.1972426743873</v>
       </c>
       <c r="AB4" t="n">
-        <v>135.6183094303559</v>
+        <v>158.9861936875816</v>
       </c>
       <c r="AC4" t="n">
-        <v>122.6750883198517</v>
+        <v>143.8127745006068</v>
       </c>
       <c r="AD4" t="n">
-        <v>99118.50360374972</v>
+        <v>116197.2426743873</v>
       </c>
       <c r="AE4" t="n">
-        <v>135618.3094303558</v>
+        <v>158986.1936875816</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.000198326280098e-06</v>
+        <v>1.01276944796675e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.377083333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>122675.0883198517</v>
+        <v>143812.7745006068</v>
       </c>
     </row>
     <row r="5">
@@ -9678,28 +9678,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>93.12917271205556</v>
+        <v>110.2079117826931</v>
       </c>
       <c r="AB5" t="n">
-        <v>127.4234426737135</v>
+        <v>150.7913269309393</v>
       </c>
       <c r="AC5" t="n">
-        <v>115.262328144893</v>
+        <v>136.4000143256481</v>
       </c>
       <c r="AD5" t="n">
-        <v>93129.17271205556</v>
+        <v>110207.9117826931</v>
       </c>
       <c r="AE5" t="n">
-        <v>127423.4426737135</v>
+        <v>150791.3269309393</v>
       </c>
       <c r="AF5" t="n">
-        <v>7.399146693207203e-06</v>
+        <v>1.070488200851671e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.139583333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>115262.328144893</v>
+        <v>136400.0143256481</v>
       </c>
     </row>
     <row r="6">
@@ -9784,28 +9784,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>89.84307368711046</v>
+        <v>106.921812757748</v>
       </c>
       <c r="AB6" t="n">
-        <v>122.9272570153285</v>
+        <v>146.2951412725544</v>
       </c>
       <c r="AC6" t="n">
-        <v>111.1952521353066</v>
+        <v>132.3329383160618</v>
       </c>
       <c r="AD6" t="n">
-        <v>89843.07368711046</v>
+        <v>106921.812757748</v>
       </c>
       <c r="AE6" t="n">
-        <v>122927.2570153285</v>
+        <v>146295.1412725543</v>
       </c>
       <c r="AF6" t="n">
-        <v>7.600753110847108e-06</v>
+        <v>1.099656063072543e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.03125</v>
       </c>
       <c r="AH6" t="n">
-        <v>111195.2521353066</v>
+        <v>132332.9383160618</v>
       </c>
     </row>
     <row r="7">
@@ -9890,28 +9890,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>77.58613188921299</v>
+        <v>94.7501223058711</v>
       </c>
       <c r="AB7" t="n">
-        <v>106.1567685093449</v>
+        <v>129.6412974192199</v>
       </c>
       <c r="AC7" t="n">
-        <v>96.02531551480028</v>
+        <v>117.2685139462676</v>
       </c>
       <c r="AD7" t="n">
-        <v>77586.13188921299</v>
+        <v>94750.1223058711</v>
       </c>
       <c r="AE7" t="n">
-        <v>106156.7685093449</v>
+        <v>129641.2974192199</v>
       </c>
       <c r="AF7" t="n">
-        <v>7.820005604429237e-06</v>
+        <v>1.13137691104579e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.916666666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>96025.31551480028</v>
+        <v>117268.5139462676</v>
       </c>
     </row>
     <row r="8">
@@ -9996,28 +9996,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>75.00484941560603</v>
+        <v>92.16883983226415</v>
       </c>
       <c r="AB8" t="n">
-        <v>102.624943950812</v>
+        <v>126.109472860687</v>
       </c>
       <c r="AC8" t="n">
-        <v>92.83056333518576</v>
+        <v>114.0737617666531</v>
       </c>
       <c r="AD8" t="n">
-        <v>75004.84941560603</v>
+        <v>92168.83983226416</v>
       </c>
       <c r="AE8" t="n">
-        <v>102624.943950812</v>
+        <v>126109.472860687</v>
       </c>
       <c r="AF8" t="n">
-        <v>7.955733338551506e-06</v>
+        <v>1.151013626457799e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="AH8" t="n">
-        <v>92830.56333518575</v>
+        <v>114073.7617666531</v>
       </c>
     </row>
     <row r="9">
@@ -10102,28 +10102,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>74.09250347169673</v>
+        <v>91.25649388835485</v>
       </c>
       <c r="AB9" t="n">
-        <v>101.3766319804936</v>
+        <v>124.8611608903686</v>
       </c>
       <c r="AC9" t="n">
-        <v>91.70138850729727</v>
+        <v>112.9445869387646</v>
       </c>
       <c r="AD9" t="n">
-        <v>74092.50347169673</v>
+        <v>91256.49388835486</v>
       </c>
       <c r="AE9" t="n">
-        <v>101376.6319804936</v>
+        <v>124861.1608903686</v>
       </c>
       <c r="AF9" t="n">
-        <v>8.025876490421846e-06</v>
+        <v>1.161161744823486e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>4</v>
+        <v>3.816666666666666</v>
       </c>
       <c r="AH9" t="n">
-        <v>91701.38850729726</v>
+        <v>112944.5869387646</v>
       </c>
     </row>
   </sheetData>
@@ -10399,28 +10399,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>120.3405244264297</v>
+        <v>144.6279521260261</v>
       </c>
       <c r="AB2" t="n">
-        <v>164.6552145694135</v>
+        <v>197.8863446336731</v>
       </c>
       <c r="AC2" t="n">
-        <v>148.9407519859993</v>
+        <v>179.0003496371205</v>
       </c>
       <c r="AD2" t="n">
-        <v>120340.5244264297</v>
+        <v>144627.9521260262</v>
       </c>
       <c r="AE2" t="n">
-        <v>164655.2145694135</v>
+        <v>197886.3446336731</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.884760984373196e-06</v>
+        <v>8.837055027505581e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.631250000000001</v>
       </c>
       <c r="AH2" t="n">
-        <v>148940.7519859993</v>
+        <v>179000.3496371205</v>
       </c>
     </row>
     <row r="3">
@@ -10505,28 +10505,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>80.91621028113249</v>
+        <v>97.02257740150957</v>
       </c>
       <c r="AB3" t="n">
-        <v>110.713128677857</v>
+        <v>132.7505707347142</v>
       </c>
       <c r="AC3" t="n">
-        <v>100.1468230637226</v>
+        <v>120.0810425804246</v>
       </c>
       <c r="AD3" t="n">
-        <v>80916.21028113249</v>
+        <v>97022.57740150957</v>
       </c>
       <c r="AE3" t="n">
-        <v>110713.128677857</v>
+        <v>132750.5707347142</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.888452817472608e-06</v>
+        <v>1.184596822453818e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.202083333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>100146.8230637227</v>
+        <v>120081.0425804246</v>
       </c>
     </row>
     <row r="4">
@@ -10611,28 +10611,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>64.72905953649858</v>
+        <v>80.92067800289624</v>
       </c>
       <c r="AB4" t="n">
-        <v>88.56515490236963</v>
+        <v>110.7192416118761</v>
       </c>
       <c r="AC4" t="n">
-        <v>80.11262082048438</v>
+        <v>100.1523525878985</v>
       </c>
       <c r="AD4" t="n">
-        <v>64729.05953649858</v>
+        <v>80920.67800289624</v>
       </c>
       <c r="AE4" t="n">
-        <v>88565.15490236963</v>
+        <v>110719.2416118761</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.60450021253259e-06</v>
+        <v>1.292124558061946e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.852083333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>80112.62082048439</v>
+        <v>100152.3525878986</v>
       </c>
     </row>
     <row r="5">
@@ -10717,28 +10717,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>64.27922903363533</v>
+        <v>80.47084750003297</v>
       </c>
       <c r="AB5" t="n">
-        <v>87.94967696323127</v>
+        <v>110.1037636727377</v>
       </c>
       <c r="AC5" t="n">
-        <v>79.55588323202845</v>
+        <v>99.59561499944263</v>
       </c>
       <c r="AD5" t="n">
-        <v>64279.22903363533</v>
+        <v>80470.84750003298</v>
       </c>
       <c r="AE5" t="n">
-        <v>87949.67696323126</v>
+        <v>110103.7636727377</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.635681125536758e-06</v>
+        <v>1.296806947792937e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.8375</v>
       </c>
       <c r="AH5" t="n">
-        <v>79555.88323202846</v>
+        <v>99595.61499944264</v>
       </c>
     </row>
   </sheetData>
@@ -11014,28 +11014,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>84.47704116417538</v>
+        <v>107.9662762858447</v>
       </c>
       <c r="AB2" t="n">
-        <v>115.5852145848053</v>
+        <v>147.7242223501743</v>
       </c>
       <c r="AC2" t="n">
-        <v>104.5539239297289</v>
+        <v>133.6256299013621</v>
       </c>
       <c r="AD2" t="n">
-        <v>84477.04116417537</v>
+        <v>107966.2762858447</v>
       </c>
       <c r="AE2" t="n">
-        <v>115585.2145848053</v>
+        <v>147724.2223501743</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.260644895084751e-06</v>
+        <v>1.113599050262094e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.754166666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>104553.9239297289</v>
+        <v>133625.6299013621</v>
       </c>
     </row>
     <row r="3">
@@ -11120,28 +11120,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>61.9304960437418</v>
+        <v>85.33439031083955</v>
       </c>
       <c r="AB3" t="n">
-        <v>84.73603686767406</v>
+        <v>116.7582775108455</v>
       </c>
       <c r="AC3" t="n">
-        <v>76.64894843681803</v>
+        <v>105.6150313765124</v>
       </c>
       <c r="AD3" t="n">
-        <v>61930.4960437418</v>
+        <v>85334.39031083955</v>
       </c>
       <c r="AE3" t="n">
-        <v>84736.03686767406</v>
+        <v>116758.2775108455</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.655138134509093e-06</v>
+        <v>1.327478997492558e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.989583333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>76648.94843681803</v>
+        <v>105615.0313765124</v>
       </c>
     </row>
     <row r="4">
@@ -11226,28 +11226,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>60.91899033672715</v>
+        <v>76.63537432088782</v>
       </c>
       <c r="AB4" t="n">
-        <v>83.35205013485498</v>
+        <v>104.8559000598994</v>
       </c>
       <c r="AC4" t="n">
-        <v>75.39704745534115</v>
+        <v>94.84860012438914</v>
       </c>
       <c r="AD4" t="n">
-        <v>60918.99033672715</v>
+        <v>76635.37432088781</v>
       </c>
       <c r="AE4" t="n">
-        <v>83352.05013485497</v>
+        <v>104855.9000598994</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.785058835603412e-06</v>
+        <v>1.347405542784142e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.929166666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>75397.04745534115</v>
+        <v>94848.60012438914</v>
       </c>
     </row>
   </sheetData>
@@ -19816,28 +19816,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>74.28650409745265</v>
+        <v>89.70836513220688</v>
       </c>
       <c r="AB2" t="n">
-        <v>101.6420721953562</v>
+        <v>122.7429428275875</v>
       </c>
       <c r="AC2" t="n">
-        <v>91.9414954806012</v>
+        <v>111.028528634957</v>
       </c>
       <c r="AD2" t="n">
-        <v>74286.50409745265</v>
+        <v>89708.36513220688</v>
       </c>
       <c r="AE2" t="n">
-        <v>101642.0721953562</v>
+        <v>122742.9428275875</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.886908701535046e-06</v>
+        <v>1.232313927399131e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.529166666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>91941.49548060121</v>
+        <v>111028.528634957</v>
       </c>
     </row>
     <row r="3">
@@ -19922,28 +19922,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>65.88759867932926</v>
+        <v>81.13886751349129</v>
       </c>
       <c r="AB3" t="n">
-        <v>90.15031926872948</v>
+        <v>111.0177781261139</v>
       </c>
       <c r="AC3" t="n">
-        <v>81.54649932451152</v>
+        <v>100.4223971962163</v>
       </c>
       <c r="AD3" t="n">
-        <v>65887.59867932925</v>
+        <v>81138.86751349129</v>
       </c>
       <c r="AE3" t="n">
-        <v>90150.31926872948</v>
+        <v>111017.7781261139</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.86282965523525e-06</v>
+        <v>1.384799651375032e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.029166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>81546.49932451152</v>
+        <v>100422.3971962163</v>
       </c>
     </row>
   </sheetData>
@@ -20219,28 +20219,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>61.46225563847178</v>
+        <v>76.1311088113726</v>
       </c>
       <c r="AB2" t="n">
-        <v>84.09536968787518</v>
+        <v>104.1659417431569</v>
       </c>
       <c r="AC2" t="n">
-        <v>76.0694256334769</v>
+        <v>94.22449046103368</v>
       </c>
       <c r="AD2" t="n">
-        <v>61462.25563847178</v>
+        <v>76131.1088113726</v>
       </c>
       <c r="AE2" t="n">
-        <v>84095.36968787518</v>
+        <v>104165.9417431569</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.467450834964208e-06</v>
+        <v>1.379920253390179e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.527083333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>76069.4256334769</v>
+        <v>94224.49046103368</v>
       </c>
     </row>
   </sheetData>
@@ -20516,28 +20516,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>162.6668569824741</v>
+        <v>187.643784754709</v>
       </c>
       <c r="AB2" t="n">
-        <v>222.567970078569</v>
+        <v>256.7425045608085</v>
       </c>
       <c r="AC2" t="n">
-        <v>201.3263953904423</v>
+        <v>232.2393602659679</v>
       </c>
       <c r="AD2" t="n">
-        <v>162666.8569824742</v>
+        <v>187643.784754709</v>
       </c>
       <c r="AE2" t="n">
-        <v>222567.970078569</v>
+        <v>256742.5045608084</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.893673048131564e-06</v>
+        <v>7.229818626122513e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.550000000000001</v>
       </c>
       <c r="AH2" t="n">
-        <v>201326.3953904423</v>
+        <v>232239.360265968</v>
       </c>
     </row>
     <row r="3">
@@ -20622,28 +20622,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>95.381797248683</v>
+        <v>112.0615293816968</v>
       </c>
       <c r="AB3" t="n">
-        <v>130.5055829435064</v>
+        <v>153.3275283057318</v>
       </c>
       <c r="AC3" t="n">
-        <v>118.0503132731488</v>
+        <v>138.6941642008123</v>
       </c>
       <c r="AD3" t="n">
-        <v>95381.797248683</v>
+        <v>112061.5293816968</v>
       </c>
       <c r="AE3" t="n">
-        <v>130505.5829435064</v>
+        <v>153327.5283057318</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.993071710837734e-06</v>
+        <v>1.033142991196126e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.583333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>118050.3132731488</v>
+        <v>138694.1642008123</v>
       </c>
     </row>
     <row r="4">
@@ -20728,28 +20728,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>85.5762185444534</v>
+        <v>102.085358476875</v>
       </c>
       <c r="AB4" t="n">
-        <v>117.0891575687845</v>
+        <v>139.6776911561631</v>
       </c>
       <c r="AC4" t="n">
-        <v>105.9143327061149</v>
+        <v>126.3470483511273</v>
       </c>
       <c r="AD4" t="n">
-        <v>85576.2185444534</v>
+        <v>102085.358476875</v>
       </c>
       <c r="AE4" t="n">
-        <v>117089.1575687845</v>
+        <v>139677.6911561631</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.69641026897537e-06</v>
+        <v>1.137052879700736e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.164583333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>105914.3327061149</v>
+        <v>126347.0483511273</v>
       </c>
     </row>
     <row r="5">
@@ -20834,28 +20834,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>70.34101988636067</v>
+        <v>86.93541116480284</v>
       </c>
       <c r="AB5" t="n">
-        <v>96.24368663526425</v>
+        <v>118.9488648752921</v>
       </c>
       <c r="AC5" t="n">
-        <v>87.05832426168094</v>
+        <v>107.5965521574056</v>
       </c>
       <c r="AD5" t="n">
-        <v>70341.01988636066</v>
+        <v>86935.41116480285</v>
       </c>
       <c r="AE5" t="n">
-        <v>96243.68663526425</v>
+        <v>118948.8648752921</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.22018284650775e-06</v>
+        <v>1.214434034911782e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="AH5" t="n">
-        <v>87058.32426168094</v>
+        <v>107596.5521574056</v>
       </c>
     </row>
     <row r="6">
@@ -20940,28 +20940,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>67.96550738390059</v>
+        <v>84.55989866234277</v>
       </c>
       <c r="AB6" t="n">
-        <v>92.99340562918482</v>
+        <v>115.6985838692127</v>
       </c>
       <c r="AC6" t="n">
-        <v>84.11824551302267</v>
+        <v>104.6564734087473</v>
       </c>
       <c r="AD6" t="n">
-        <v>67965.50738390059</v>
+        <v>84559.89866234278</v>
       </c>
       <c r="AE6" t="n">
-        <v>92993.40562918482</v>
+        <v>115698.5838692127</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.40174913366645e-06</v>
+        <v>1.241258289655916e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.814583333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>84118.24551302267</v>
+        <v>104656.4734087473</v>
       </c>
     </row>
   </sheetData>
@@ -21237,28 +21237,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>248.9706946807349</v>
+        <v>283.001374697544</v>
       </c>
       <c r="AB2" t="n">
-        <v>340.6526882738727</v>
+        <v>387.2149660006756</v>
       </c>
       <c r="AC2" t="n">
-        <v>308.1412738141665</v>
+        <v>350.2597131051883</v>
       </c>
       <c r="AD2" t="n">
-        <v>248970.6946807349</v>
+        <v>283001.374697544</v>
       </c>
       <c r="AE2" t="n">
-        <v>340652.6882738727</v>
+        <v>387214.9660006756</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.787208708029181e-06</v>
+        <v>5.49966714151961e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.15625</v>
       </c>
       <c r="AH2" t="n">
-        <v>308141.2738141665</v>
+        <v>350259.7131051883</v>
       </c>
     </row>
     <row r="3">
@@ -21343,28 +21343,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>122.9952423861849</v>
+        <v>140.053297576149</v>
       </c>
       <c r="AB3" t="n">
-        <v>168.2875167998394</v>
+        <v>191.6271004590194</v>
       </c>
       <c r="AC3" t="n">
-        <v>152.2263923895226</v>
+        <v>173.3384789415893</v>
       </c>
       <c r="AD3" t="n">
-        <v>122995.2423861849</v>
+        <v>140053.297576149</v>
       </c>
       <c r="AE3" t="n">
-        <v>168287.5167998394</v>
+        <v>191627.1004590194</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.132899795689569e-06</v>
+        <v>8.90600705925668e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.037500000000001</v>
       </c>
       <c r="AH3" t="n">
-        <v>152226.3923895226</v>
+        <v>173338.4789415893</v>
       </c>
     </row>
     <row r="4">
@@ -21449,28 +21449,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>94.67938893327342</v>
+        <v>111.6521032686659</v>
       </c>
       <c r="AB4" t="n">
-        <v>129.5445168982956</v>
+        <v>152.767333435278</v>
       </c>
       <c r="AC4" t="n">
-        <v>117.180970022428</v>
+        <v>138.1874335425559</v>
       </c>
       <c r="AD4" t="n">
-        <v>94679.38893327341</v>
+        <v>111652.1032686659</v>
       </c>
       <c r="AE4" t="n">
-        <v>129544.5168982956</v>
+        <v>152767.333435278</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.245101366393778e-06</v>
+        <v>1.052111171936703e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.264583333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>117180.970022428</v>
+        <v>138187.4335425559</v>
       </c>
     </row>
     <row r="5">
@@ -21555,28 +21555,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>89.84028235682268</v>
+        <v>106.8129966922152</v>
       </c>
       <c r="AB5" t="n">
-        <v>122.923437794084</v>
+        <v>146.1462543310664</v>
       </c>
       <c r="AC5" t="n">
-        <v>111.1917974151773</v>
+        <v>132.1982609353052</v>
       </c>
       <c r="AD5" t="n">
-        <v>89840.28235682269</v>
+        <v>106812.9966922152</v>
       </c>
       <c r="AE5" t="n">
-        <v>122923.437794084</v>
+        <v>146146.2543310664</v>
       </c>
       <c r="AF5" t="n">
-        <v>7.5899861622154e-06</v>
+        <v>1.102194273382066e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.070833333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>111191.7974151774</v>
+        <v>132198.2609353052</v>
       </c>
     </row>
     <row r="6">
@@ -21661,28 +21661,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>77.48605329466179</v>
+        <v>94.54401897607485</v>
       </c>
       <c r="AB6" t="n">
-        <v>106.019836561124</v>
+        <v>129.3592977507556</v>
       </c>
       <c r="AC6" t="n">
-        <v>95.90145215953237</v>
+        <v>117.0134279303725</v>
       </c>
       <c r="AD6" t="n">
-        <v>77486.05329466179</v>
+        <v>94544.01897607485</v>
       </c>
       <c r="AE6" t="n">
-        <v>106019.836561124</v>
+        <v>129359.2977507556</v>
       </c>
       <c r="AF6" t="n">
-        <v>7.830189674352557e-06</v>
+        <v>1.137075883159146e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.945833333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>95901.45215953237</v>
+        <v>117013.4279303725</v>
       </c>
     </row>
     <row r="7">
@@ -21767,28 +21767,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>74.13206903976844</v>
+        <v>91.19003472118149</v>
       </c>
       <c r="AB7" t="n">
-        <v>101.4307673362389</v>
+        <v>124.7702285258705</v>
       </c>
       <c r="AC7" t="n">
-        <v>91.75035726066973</v>
+        <v>112.8623330315098</v>
       </c>
       <c r="AD7" t="n">
-        <v>74132.06903976844</v>
+        <v>91190.0347211815</v>
       </c>
       <c r="AE7" t="n">
-        <v>101430.7673362389</v>
+        <v>124770.2285258705</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.037328135127625e-06</v>
+        <v>1.167155888627406e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.84375</v>
       </c>
       <c r="AH7" t="n">
-        <v>91750.35726066973</v>
+        <v>112862.3330315098</v>
       </c>
     </row>
     <row r="8">
@@ -21873,28 +21873,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>72.77890823850473</v>
+        <v>89.83687391991778</v>
       </c>
       <c r="AB8" t="n">
-        <v>99.57931303070951</v>
+        <v>122.9187742203411</v>
       </c>
       <c r="AC8" t="n">
-        <v>90.07560315552702</v>
+        <v>111.1875789263671</v>
       </c>
       <c r="AD8" t="n">
-        <v>72778.90823850472</v>
+        <v>89836.87391991778</v>
       </c>
       <c r="AE8" t="n">
-        <v>99579.31303070951</v>
+        <v>122918.7742203411</v>
       </c>
       <c r="AF8" t="n">
-        <v>8.094710085249278e-06</v>
+        <v>1.175488717629708e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>4</v>
+        <v>3.816666666666666</v>
       </c>
       <c r="AH8" t="n">
-        <v>90075.60315552702</v>
+        <v>111187.5789263671</v>
       </c>
     </row>
   </sheetData>
@@ -22170,28 +22170,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>67.50151368915621</v>
+        <v>81.73293113822926</v>
       </c>
       <c r="AB2" t="n">
-        <v>92.35854898607873</v>
+        <v>111.8306021857175</v>
       </c>
       <c r="AC2" t="n">
-        <v>83.54397869690752</v>
+        <v>101.1576464683772</v>
       </c>
       <c r="AD2" t="n">
-        <v>67501.51368915621</v>
+        <v>81732.93113822927</v>
       </c>
       <c r="AE2" t="n">
-        <v>92358.54898607873</v>
+        <v>111830.6021857175</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.784964882550391e-06</v>
+        <v>1.297707263846336e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.097916666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>83543.97869690752</v>
+        <v>101157.6464683772</v>
       </c>
     </row>
   </sheetData>
@@ -22467,28 +22467,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>102.0661401009014</v>
+        <v>117.951311561084</v>
       </c>
       <c r="AB2" t="n">
-        <v>139.6513957263012</v>
+        <v>161.3861881224167</v>
       </c>
       <c r="AC2" t="n">
-        <v>126.3232625201855</v>
+        <v>145.9837168349953</v>
       </c>
       <c r="AD2" t="n">
-        <v>102066.1401009015</v>
+        <v>117951.311561084</v>
       </c>
       <c r="AE2" t="n">
-        <v>139651.3957263012</v>
+        <v>161386.1881224167</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.68761444309184e-06</v>
+        <v>1.01779247044641e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.0875</v>
       </c>
       <c r="AH2" t="n">
-        <v>126323.2625201855</v>
+        <v>145983.7168349953</v>
       </c>
     </row>
     <row r="3">
@@ -22573,28 +22573,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>72.67861289000832</v>
+        <v>88.47844349561926</v>
       </c>
       <c r="AB3" t="n">
-        <v>99.4420845101783</v>
+        <v>121.0601097840961</v>
       </c>
       <c r="AC3" t="n">
-        <v>89.95147153239382</v>
+        <v>109.5063028152648</v>
       </c>
       <c r="AD3" t="n">
-        <v>72678.61289000833</v>
+        <v>88478.44349561926</v>
       </c>
       <c r="AE3" t="n">
-        <v>99442.08451017831</v>
+        <v>121060.1097840961</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.500241608826204e-06</v>
+        <v>1.293657399070813e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.002083333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>89951.47153239383</v>
+        <v>109506.3028152648</v>
       </c>
     </row>
     <row r="4">
@@ -22679,28 +22679,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>61.95113247885372</v>
+        <v>77.83621443048526</v>
       </c>
       <c r="AB4" t="n">
-        <v>84.76427254860944</v>
+        <v>106.4989424751765</v>
       </c>
       <c r="AC4" t="n">
-        <v>76.67448934399398</v>
+        <v>96.33483287757721</v>
       </c>
       <c r="AD4" t="n">
-        <v>61951.13247885372</v>
+        <v>77836.21443048526</v>
       </c>
       <c r="AE4" t="n">
-        <v>84764.27254860944</v>
+        <v>106498.9424751765</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.756622207943587e-06</v>
+        <v>1.332676132218589e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.885416666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>76674.48934399398</v>
+        <v>96334.83287757721</v>
       </c>
     </row>
   </sheetData>
@@ -22976,28 +22976,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>130.7062651357422</v>
+        <v>155.2049285948354</v>
       </c>
       <c r="AB2" t="n">
-        <v>178.838078312093</v>
+        <v>212.35823046156</v>
       </c>
       <c r="AC2" t="n">
-        <v>161.7700231188562</v>
+        <v>192.0910589930178</v>
       </c>
       <c r="AD2" t="n">
-        <v>130706.2651357422</v>
+        <v>155204.9285948354</v>
       </c>
       <c r="AE2" t="n">
-        <v>178838.078312093</v>
+        <v>212358.23046156</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.527948434715973e-06</v>
+        <v>8.252733334186072e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.925000000000001</v>
       </c>
       <c r="AH2" t="n">
-        <v>161770.0231188562</v>
+        <v>192091.0589930178</v>
       </c>
     </row>
     <row r="3">
@@ -23082,28 +23082,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>85.55606292243401</v>
+        <v>101.8032538824756</v>
       </c>
       <c r="AB3" t="n">
-        <v>117.0615797575343</v>
+        <v>139.2917032045297</v>
       </c>
       <c r="AC3" t="n">
-        <v>105.8893868824647</v>
+        <v>125.9978985478602</v>
       </c>
       <c r="AD3" t="n">
-        <v>85556.06292243401</v>
+        <v>101803.2538824756</v>
       </c>
       <c r="AE3" t="n">
-        <v>117061.5797575343</v>
+        <v>139291.7032045297</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.572786243075357e-06</v>
+        <v>1.130549356582498e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.325</v>
       </c>
       <c r="AH3" t="n">
-        <v>105889.3868824647</v>
+        <v>125997.8985478602</v>
       </c>
     </row>
     <row r="4">
@@ -23188,28 +23188,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>68.66512798875505</v>
+        <v>84.99757029481718</v>
       </c>
       <c r="AB4" t="n">
-        <v>93.95065740582893</v>
+        <v>116.2974255054736</v>
       </c>
       <c r="AC4" t="n">
-        <v>84.98413852361546</v>
+        <v>105.1981624397232</v>
       </c>
       <c r="AD4" t="n">
-        <v>68665.12798875505</v>
+        <v>84997.57029481718</v>
       </c>
       <c r="AE4" t="n">
-        <v>93950.65740582894</v>
+        <v>116297.4255054736</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.310946592932908e-06</v>
+        <v>1.240750104602986e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.941666666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>84984.13852361546</v>
+        <v>105198.1624397232</v>
       </c>
     </row>
     <row r="5">
@@ -23294,28 +23294,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>65.71029618394687</v>
+        <v>82.042738490009</v>
       </c>
       <c r="AB5" t="n">
-        <v>89.90772617251336</v>
+        <v>112.254494272158</v>
       </c>
       <c r="AC5" t="n">
-        <v>81.32705897291662</v>
+        <v>101.5410828890243</v>
       </c>
       <c r="AD5" t="n">
-        <v>65710.29618394686</v>
+        <v>82042.738490009</v>
       </c>
       <c r="AE5" t="n">
-        <v>89907.72617251336</v>
+        <v>112254.494272158</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.529486078833225e-06</v>
+        <v>1.273376098159637e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.839583333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>81327.05897291662</v>
+        <v>101541.0828890243</v>
       </c>
     </row>
   </sheetData>
